--- a/data/federal-coordinates.xlsx
+++ b/data/federal-coordinates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Varun\Documents\pyride\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24C0B59-9EC7-4EDA-A1C1-B47F726F7EE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92659019-34EC-4F49-8193-F88774526C79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2803" yWindow="2949" windowWidth="27891" windowHeight="14374" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1286" yWindow="5503" windowWidth="27891" windowHeight="14374" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2693" uniqueCount="1707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="1708">
   <si>
     <t>formatted_address</t>
   </si>
@@ -6039,6 +6039,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>Distance (km)</t>
   </si>
 </sst>
 </file>
@@ -6882,9 +6885,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L337"/>
+  <dimension ref="A1:M337"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -6893,9 +6898,13 @@
     <col min="3" max="3" width="20.765625" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="34.4609375" customWidth="1"/>
+    <col min="6" max="6" width="15.15234375" customWidth="1"/>
+    <col min="7" max="7" width="16.84375" customWidth="1"/>
+    <col min="8" max="8" width="17.15234375" customWidth="1"/>
+    <col min="13" max="13" width="18.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1706</v>
       </c>
@@ -6932,8 +6941,11 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M1" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6970,8 +6982,11 @@
       <c r="L2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M2">
+        <v>4323.8270000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7008,8 +7023,11 @@
       <c r="L3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M3">
+        <v>415.67599999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="160.30000000000001" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7046,8 +7064,11 @@
       <c r="L4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M4">
+        <v>524.25099999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7084,8 +7105,11 @@
       <c r="L5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M5">
+        <v>1057.009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7122,8 +7146,11 @@
       <c r="L6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M6">
+        <v>194.38800000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7160,8 +7187,11 @@
       <c r="L7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M7">
+        <v>408.142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7198,8 +7228,11 @@
       <c r="L8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M8">
+        <v>193.41900000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7236,8 +7269,11 @@
       <c r="L9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M9">
+        <v>647.09900000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7274,8 +7310,11 @@
       <c r="L10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M10">
+        <v>39.731000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7312,8 +7351,11 @@
       <c r="L11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M11">
+        <v>394.48700000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="174.9" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7350,8 +7392,11 @@
       <c r="L12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M12">
+        <v>2716.6680000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7388,8 +7433,11 @@
       <c r="L13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M13">
+        <v>835.49300000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7426,8 +7474,11 @@
       <c r="L14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M14">
+        <v>3352.8319999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7464,8 +7515,11 @@
       <c r="L15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M15">
+        <v>457.904</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7502,8 +7556,11 @@
       <c r="L16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M16">
+        <v>409.25900000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7540,8 +7597,11 @@
       <c r="L17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M17">
+        <v>3384.4659999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7578,8 +7638,11 @@
       <c r="L18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M18">
+        <v>3200.5329999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7616,8 +7679,11 @@
       <c r="L19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M19">
+        <v>270.24299999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7654,8 +7720,11 @@
       <c r="L20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M20">
+        <v>444.66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="189.45" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7692,8 +7761,11 @@
       <c r="L21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="204" x14ac:dyDescent="0.4">
+      <c r="M21">
+        <v>476.57299999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="204" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7730,8 +7802,11 @@
       <c r="L22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M22">
+        <v>478.10899999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7768,8 +7843,11 @@
       <c r="L23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M23">
+        <v>448.98099999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7806,8 +7884,11 @@
       <c r="L24" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M24">
+        <v>1203.3489999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7844,8 +7925,11 @@
       <c r="L25" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M25">
+        <v>448.54300000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7882,8 +7966,11 @@
       <c r="L26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M26">
+        <v>235.41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7920,8 +8007,11 @@
       <c r="L27" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M27">
+        <v>284.62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7958,8 +8048,11 @@
       <c r="L28" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M28">
+        <v>2768.4290000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7996,8 +8089,11 @@
       <c r="L29" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M29">
+        <v>202.328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8034,8 +8130,11 @@
       <c r="L30" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M30">
+        <v>3145.2689999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -8072,8 +8171,11 @@
       <c r="L31" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M31">
+        <v>417.54700000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8110,8 +8212,11 @@
       <c r="L32" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M32">
+        <v>408.91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -8148,8 +8253,11 @@
       <c r="L33" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="174.9" x14ac:dyDescent="0.4">
+      <c r="M33">
+        <v>413.714</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="174.9" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -8186,8 +8294,11 @@
       <c r="L34" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M34">
+        <v>422.51799999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -8224,8 +8335,11 @@
       <c r="L35" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M35">
+        <v>424.74599999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -8262,8 +8376,11 @@
       <c r="L36" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M36">
+        <v>2362.67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -8300,8 +8417,11 @@
       <c r="L37" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M37">
+        <v>550.53200000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -8338,8 +8458,11 @@
       <c r="L38" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M38">
+        <v>319.399</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -8376,8 +8499,11 @@
       <c r="L39" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M39">
+        <v>206.44399999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -8414,8 +8540,11 @@
       <c r="L40" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M40">
+        <v>566.697</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -8452,8 +8581,11 @@
       <c r="L41" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M41">
+        <v>500.36399999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -8490,8 +8622,11 @@
       <c r="L42" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="M42">
+        <v>4357.6139999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -8528,8 +8663,11 @@
       <c r="L43" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M43">
+        <v>4348.8860000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -8566,8 +8704,11 @@
       <c r="L44" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M44">
+        <v>275.274</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -8604,8 +8745,11 @@
       <c r="L45" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M45">
+        <v>3333.355</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -8642,8 +8786,11 @@
       <c r="L46" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M46">
+        <v>3330.2849999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -8680,8 +8827,11 @@
       <c r="L47" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M47">
+        <v>3325.3420000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -8718,8 +8868,11 @@
       <c r="L48" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M48">
+        <v>3319.8009999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -8756,8 +8909,11 @@
       <c r="L49" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M49">
+        <v>3314.5810000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -8794,8 +8950,11 @@
       <c r="L50" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M50">
+        <v>3336.1550000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -8832,8 +8991,11 @@
       <c r="L51" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M51">
+        <v>3356.7440000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -8870,8 +9032,11 @@
       <c r="L52" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M52">
+        <v>3313.8009999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -8908,8 +9073,11 @@
       <c r="L53" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M53">
+        <v>3338.0729999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -8946,8 +9114,11 @@
       <c r="L54" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M54">
+        <v>3326.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -8984,8 +9155,11 @@
       <c r="L55" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M55">
+        <v>526.70600000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -9022,8 +9196,11 @@
       <c r="L56" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M56">
+        <v>1662.588</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -9060,8 +9237,11 @@
       <c r="L57" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M57">
+        <v>1391.943</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -9098,8 +9278,11 @@
       <c r="L58" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="M58">
+        <v>4191.1059999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -9136,8 +9319,11 @@
       <c r="L59" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M59">
+        <v>36.735999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -9174,8 +9360,11 @@
       <c r="L60" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M60">
+        <v>2945.12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -9212,8 +9401,11 @@
       <c r="L61" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M61">
+        <v>1458.769</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -9250,8 +9442,11 @@
       <c r="L62" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M62">
+        <v>4078.5949999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -9288,8 +9483,11 @@
       <c r="L63" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M63">
+        <v>447.82499999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -9326,8 +9524,11 @@
       <c r="L64" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M64">
+        <v>2165.1950000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -9364,8 +9565,11 @@
       <c r="L65" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M65">
+        <v>1342.71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -9402,8 +9606,11 @@
       <c r="L66" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M66">
+        <v>783.28099999999995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -9440,8 +9647,11 @@
       <c r="L67" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M67">
+        <v>649.06600000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -9478,8 +9688,11 @@
       <c r="L68" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M68">
+        <v>4344.0429999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -9516,8 +9729,11 @@
       <c r="L69" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M69">
+        <v>2899.73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -9554,8 +9770,11 @@
       <c r="L70" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M70">
+        <v>192.94499999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -9592,8 +9811,11 @@
       <c r="L71" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M71">
+        <v>4330.2470000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -9630,8 +9852,11 @@
       <c r="L72" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M72">
+        <v>2400.0659999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -9668,8 +9893,11 @@
       <c r="L73" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" ht="160.30000000000001" x14ac:dyDescent="0.4">
+      <c r="M73">
+        <v>353.79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="160.30000000000001" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -9706,8 +9934,11 @@
       <c r="L74" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M74">
+        <v>4349.4669999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -9744,8 +9975,11 @@
       <c r="L75" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M75">
+        <v>4466.4830000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -9782,8 +10016,11 @@
       <c r="L76" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="M76">
+        <v>4416.2709999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -9820,8 +10057,11 @@
       <c r="L77" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" ht="160.30000000000001" x14ac:dyDescent="0.4">
+      <c r="M77">
+        <v>1244.6279999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="160.30000000000001" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -9858,8 +10098,11 @@
       <c r="L78" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M78">
+        <v>2820.3580000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -9896,8 +10139,11 @@
       <c r="L79" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M79">
+        <v>1434.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -9934,8 +10180,11 @@
       <c r="L80" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M80">
+        <v>2463.9459999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -9972,8 +10221,11 @@
       <c r="L81" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="M81">
+        <v>452.16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -10010,8 +10262,11 @@
       <c r="L82" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M82">
+        <v>4344.0020000000004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -10048,8 +10303,11 @@
       <c r="L83" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M83">
+        <v>3223.7049999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -10086,8 +10344,11 @@
       <c r="L84" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M84">
+        <v>436.02800000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -10124,8 +10385,11 @@
       <c r="L85" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M85">
+        <v>432.18400000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -10162,8 +10426,11 @@
       <c r="L86" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M86">
+        <v>442.79599999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -10200,8 +10467,11 @@
       <c r="L87" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M87">
+        <v>192.47</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -10238,8 +10508,11 @@
       <c r="L88" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M88">
+        <v>304.91300000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -10252,8 +10525,11 @@
       <c r="L89" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M89">
+        <v>4293.0810000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -10290,8 +10566,11 @@
       <c r="L90" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M90">
+        <v>377.113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -10328,8 +10607,11 @@
       <c r="L91" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M91">
+        <v>3455.442</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -10366,8 +10648,11 @@
       <c r="L92" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M92">
+        <v>3448.8560000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -10404,8 +10689,11 @@
       <c r="L93" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M93">
+        <v>3450.8879999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -10442,8 +10730,11 @@
       <c r="L94" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M94">
+        <v>3462.0309999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -10480,8 +10771,11 @@
       <c r="L95" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M95">
+        <v>3465.1680000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -10518,8 +10812,11 @@
       <c r="L96" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M96">
+        <v>3453.6819999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -10556,8 +10853,11 @@
       <c r="L97" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M97">
+        <v>3460.1909999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -10594,8 +10894,11 @@
       <c r="L98" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M98">
+        <v>3461.8440000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -10632,8 +10935,11 @@
       <c r="L99" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M99">
+        <v>445.77600000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -10670,8 +10976,11 @@
       <c r="L100" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M100">
+        <v>1312.828</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
@@ -10708,8 +11017,11 @@
       <c r="L101" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M101">
+        <v>637.553</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>101</v>
       </c>
@@ -10746,8 +11058,11 @@
       <c r="L102" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M102">
+        <v>2135.759</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>102</v>
       </c>
@@ -10784,8 +11099,11 @@
       <c r="L103" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M103">
+        <v>4357.0839999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>103</v>
       </c>
@@ -10822,8 +11140,11 @@
       <c r="L104" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M104">
+        <v>789.28300000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>104</v>
       </c>
@@ -10860,8 +11181,11 @@
       <c r="L105" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="M105">
+        <v>459.62900000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>105</v>
       </c>
@@ -10898,8 +11222,11 @@
       <c r="L106" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M106">
+        <v>452.858</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>106</v>
       </c>
@@ -10936,8 +11263,11 @@
       <c r="L107" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M107">
+        <v>463.755</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>107</v>
       </c>
@@ -10974,8 +11304,11 @@
       <c r="L108" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M108">
+        <v>530.59900000000005</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>108</v>
       </c>
@@ -11012,8 +11345,11 @@
       <c r="L109" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M109">
+        <v>4330.9290000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>109</v>
       </c>
@@ -11050,8 +11386,11 @@
       <c r="L110" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" ht="160.30000000000001" x14ac:dyDescent="0.4">
+      <c r="M110">
+        <v>3326.66</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="160.30000000000001" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>110</v>
       </c>
@@ -11088,8 +11427,11 @@
       <c r="L111" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="M111">
+        <v>3766.5949999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>111</v>
       </c>
@@ -11123,8 +11465,11 @@
       <c r="L112" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M112">
+        <v>1010.687</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>112</v>
       </c>
@@ -11161,8 +11506,11 @@
       <c r="L113" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" ht="160.30000000000001" x14ac:dyDescent="0.4">
+      <c r="M113">
+        <v>1119.317</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="160.30000000000001" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>113</v>
       </c>
@@ -11199,8 +11547,11 @@
       <c r="L114" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M114">
+        <v>1145.723</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>114</v>
       </c>
@@ -11237,8 +11588,11 @@
       <c r="L115" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M115">
+        <v>9.84</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>115</v>
       </c>
@@ -11275,8 +11629,11 @@
       <c r="L116" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M116">
+        <v>39.911999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>116</v>
       </c>
@@ -11313,8 +11670,11 @@
       <c r="L117" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M117">
+        <v>3903.14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>117</v>
       </c>
@@ -11351,8 +11711,11 @@
       <c r="L118" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M118">
+        <v>526.05600000000004</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>118</v>
       </c>
@@ -11389,8 +11752,11 @@
       <c r="L119" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M119">
+        <v>595.27599999999995</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>119</v>
       </c>
@@ -11427,8 +11793,11 @@
       <c r="L120" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M120">
+        <v>318.649</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>120</v>
       </c>
@@ -11465,8 +11834,11 @@
       <c r="L121" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M121">
+        <v>1437.471</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>121</v>
       </c>
@@ -11503,8 +11875,11 @@
       <c r="L122" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M122">
+        <v>1427.6010000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>122</v>
       </c>
@@ -11541,8 +11916,11 @@
       <c r="L123" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M123">
+        <v>517.82500000000005</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>123</v>
       </c>
@@ -11579,8 +11957,11 @@
       <c r="L124" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M124">
+        <v>519.24300000000005</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>124</v>
       </c>
@@ -11617,8 +11998,11 @@
       <c r="L125" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M125">
+        <v>519.34500000000003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>125</v>
       </c>
@@ -11655,8 +12039,11 @@
       <c r="L126" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M126">
+        <v>517.53499999999997</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>126</v>
       </c>
@@ -11693,8 +12080,11 @@
       <c r="L127" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M127">
+        <v>266.42399999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>127</v>
       </c>
@@ -11731,8 +12121,11 @@
       <c r="L128" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M128">
+        <v>205.94200000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>128</v>
       </c>
@@ -11769,8 +12162,11 @@
       <c r="L129" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M129">
+        <v>203.03299999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>129</v>
       </c>
@@ -11807,8 +12203,11 @@
       <c r="L130" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M130">
+        <v>2.0529999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>130</v>
       </c>
@@ -11845,8 +12244,11 @@
       <c r="L131" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M131">
+        <v>396.56799999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>131</v>
       </c>
@@ -11883,8 +12285,11 @@
       <c r="L132" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="M132">
+        <v>657.71</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>132</v>
       </c>
@@ -11921,8 +12326,11 @@
       <c r="L133" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M133">
+        <v>248.40199999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>133</v>
       </c>
@@ -11959,8 +12367,11 @@
       <c r="L134" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M134">
+        <v>651.13900000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>134</v>
       </c>
@@ -11997,8 +12408,11 @@
       <c r="L135" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M135">
+        <v>3964.9490000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>135</v>
       </c>
@@ -12035,8 +12449,11 @@
       <c r="L136" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M136">
+        <v>24.57</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>136</v>
       </c>
@@ -12073,8 +12490,11 @@
       <c r="L137" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M137">
+        <v>4065.1779999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>137</v>
       </c>
@@ -12111,8 +12531,11 @@
       <c r="L138" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M138">
+        <v>1925.4480000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>138</v>
       </c>
@@ -12149,8 +12572,11 @@
       <c r="L139" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M139">
+        <v>2143.819</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>139</v>
       </c>
@@ -12187,8 +12613,11 @@
       <c r="L140" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M140">
+        <v>197.63800000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>140</v>
       </c>
@@ -12225,8 +12654,11 @@
       <c r="L141" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M141">
+        <v>1499.548</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>141</v>
       </c>
@@ -12263,8 +12695,11 @@
       <c r="L142" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M142">
+        <v>399.13600000000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>142</v>
       </c>
@@ -12301,8 +12736,11 @@
       <c r="L143" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M143">
+        <v>541.36500000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>143</v>
       </c>
@@ -12339,8 +12777,11 @@
       <c r="L144" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M144">
+        <v>539.577</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>144</v>
       </c>
@@ -12377,8 +12818,11 @@
       <c r="L145" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M145">
+        <v>541.92700000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>145</v>
       </c>
@@ -12415,8 +12859,11 @@
       <c r="L146" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M146">
+        <v>3589.4360000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>146</v>
       </c>
@@ -12453,8 +12900,11 @@
       <c r="L147" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M147">
+        <v>209.41</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>147</v>
       </c>
@@ -12491,8 +12941,11 @@
       <c r="L148" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M148">
+        <v>208.255</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>148</v>
       </c>
@@ -12529,8 +12982,11 @@
       <c r="L149" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" ht="218.6" x14ac:dyDescent="0.4">
+      <c r="M149">
+        <v>198.64599999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="218.6" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>149</v>
       </c>
@@ -12567,8 +13023,11 @@
       <c r="L150" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M150">
+        <v>1957.7660000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>150</v>
       </c>
@@ -12605,8 +13064,11 @@
       <c r="L151" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M151">
+        <v>665.22199999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>151</v>
       </c>
@@ -12643,8 +13105,11 @@
       <c r="L152" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="M152">
+        <v>174.52199999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>152</v>
       </c>
@@ -12681,8 +13146,11 @@
       <c r="L153" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M153">
+        <v>3361.819</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>153</v>
       </c>
@@ -12719,8 +13187,11 @@
       <c r="L154" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M154">
+        <v>662.52599999999995</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>154</v>
       </c>
@@ -12757,8 +13228,11 @@
       <c r="L155" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M155">
+        <v>52.728000000000002</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>155</v>
       </c>
@@ -12795,8 +13269,11 @@
       <c r="L156" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" ht="189.45" x14ac:dyDescent="0.4">
+      <c r="M156">
+        <v>4332.7060000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="189.45" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>156</v>
       </c>
@@ -12833,8 +13310,11 @@
       <c r="L157" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" ht="160.30000000000001" x14ac:dyDescent="0.4">
+      <c r="M157">
+        <v>182.21600000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="160.30000000000001" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>157</v>
       </c>
@@ -12871,8 +13351,11 @@
       <c r="L158" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="M158">
+        <v>201.99600000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>158</v>
       </c>
@@ -12909,8 +13392,11 @@
       <c r="L159" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M159">
+        <v>188.17099999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>159</v>
       </c>
@@ -12947,8 +13433,11 @@
       <c r="L160" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M160">
+        <v>113.85599999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>160</v>
       </c>
@@ -12985,8 +13474,11 @@
       <c r="L161" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M161">
+        <v>3198.7379999999998</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>161</v>
       </c>
@@ -13023,8 +13515,11 @@
       <c r="L162" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M162">
+        <v>627.96500000000003</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>162</v>
       </c>
@@ -13061,8 +13556,11 @@
       <c r="L163" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M163">
+        <v>628.45799999999997</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>163</v>
       </c>
@@ -13099,8 +13597,11 @@
       <c r="L164" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M164">
+        <v>623.79899999999998</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>164</v>
       </c>
@@ -13137,8 +13638,11 @@
       <c r="L165" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M165">
+        <v>2047.79</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>165</v>
       </c>
@@ -13175,8 +13679,11 @@
       <c r="L166" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M166">
+        <v>207.73</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>166</v>
       </c>
@@ -13213,8 +13720,11 @@
       <c r="L167" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M167">
+        <v>208.39500000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>167</v>
       </c>
@@ -13251,8 +13761,11 @@
       <c r="L168" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M168">
+        <v>435.76</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>168</v>
       </c>
@@ -13289,8 +13802,11 @@
       <c r="L169" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M169">
+        <v>442.154</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>169</v>
       </c>
@@ -13327,8 +13843,11 @@
       <c r="L170" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M170">
+        <v>429.87</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>170</v>
       </c>
@@ -13365,8 +13884,11 @@
       <c r="L171" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M171">
+        <v>936.68899999999996</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>171</v>
       </c>
@@ -13403,8 +13925,11 @@
       <c r="L172" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M172">
+        <v>1326.819</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>172</v>
       </c>
@@ -13441,8 +13966,11 @@
       <c r="L173" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M173">
+        <v>848.404</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>173</v>
       </c>
@@ -13479,8 +14007,11 @@
       <c r="L174" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M174">
+        <v>180.578</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>174</v>
       </c>
@@ -13517,8 +14048,11 @@
       <c r="L175" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M175">
+        <v>368.72899999999998</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>175</v>
       </c>
@@ -13555,8 +14089,11 @@
       <c r="L176" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M176">
+        <v>376.68599999999998</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>176</v>
       </c>
@@ -13593,8 +14130,11 @@
       <c r="L177" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M177">
+        <v>375.81700000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>177</v>
       </c>
@@ -13631,8 +14171,11 @@
       <c r="L178" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="M178">
+        <v>3035.9670000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>178</v>
       </c>
@@ -13669,8 +14212,11 @@
       <c r="L179" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M179">
+        <v>488.488</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>179</v>
       </c>
@@ -13707,8 +14253,11 @@
       <c r="L180" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M180">
+        <v>164.15199999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>180</v>
       </c>
@@ -13745,8 +14294,11 @@
       <c r="L181" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M181">
+        <v>1015.02</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>181</v>
       </c>
@@ -13783,8 +14335,11 @@
       <c r="L182" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M182">
+        <v>4330.1450000000004</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>182</v>
       </c>
@@ -13821,8 +14376,11 @@
       <c r="L183" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M183">
+        <v>469.05900000000003</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>183</v>
       </c>
@@ -13859,8 +14417,11 @@
       <c r="L184" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M184">
+        <v>468.952</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>184</v>
       </c>
@@ -13897,8 +14458,11 @@
       <c r="L185" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M185">
+        <v>481.23899999999998</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>185</v>
       </c>
@@ -13935,8 +14499,11 @@
       <c r="L186" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M186">
+        <v>466.19400000000002</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>186</v>
       </c>
@@ -13973,8 +14540,11 @@
       <c r="L187" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M187">
+        <v>466.35</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>187</v>
       </c>
@@ -14011,8 +14581,11 @@
       <c r="L188" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M188">
+        <v>472.11200000000002</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>188</v>
       </c>
@@ -14049,8 +14622,11 @@
       <c r="L189" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M189">
+        <v>1177.4849999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>189</v>
       </c>
@@ -14087,8 +14663,11 @@
       <c r="L190" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M190">
+        <v>223.83</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>190</v>
       </c>
@@ -14125,8 +14704,11 @@
       <c r="L191" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M191">
+        <v>201.22900000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>191</v>
       </c>
@@ -14163,8 +14745,11 @@
       <c r="L192" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M192">
+        <v>500.22800000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>192</v>
       </c>
@@ -14201,8 +14786,11 @@
       <c r="L193" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M193">
+        <v>2645.2489999999998</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>193</v>
       </c>
@@ -14239,8 +14827,11 @@
       <c r="L194" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M194">
+        <v>191.20599999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>194</v>
       </c>
@@ -14277,8 +14868,11 @@
       <c r="L195" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M195">
+        <v>426.04</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>195</v>
       </c>
@@ -14315,8 +14909,11 @@
       <c r="L196" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M196">
+        <v>4434.5940000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>196</v>
       </c>
@@ -14353,8 +14950,11 @@
       <c r="L197" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M197">
+        <v>24.22</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>197</v>
       </c>
@@ -14391,8 +14991,11 @@
       <c r="L198" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" ht="160.30000000000001" x14ac:dyDescent="0.4">
+      <c r="M198">
+        <v>812.46900000000005</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" ht="160.30000000000001" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>198</v>
       </c>
@@ -14429,8 +15032,11 @@
       <c r="L199" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M199">
+        <v>4344.9269999999997</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>199</v>
       </c>
@@ -14467,8 +15073,11 @@
       <c r="L200" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M200">
+        <v>403.80200000000002</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>200</v>
       </c>
@@ -14505,8 +15114,11 @@
       <c r="L201" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M201">
+        <v>581.94399999999996</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>201</v>
       </c>
@@ -14543,8 +15155,11 @@
       <c r="L202" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M202">
+        <v>572.053</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>202</v>
       </c>
@@ -14581,8 +15196,11 @@
       <c r="L203" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M203">
+        <v>541.19299999999998</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>203</v>
       </c>
@@ -14619,8 +15237,11 @@
       <c r="L204" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M204">
+        <v>487.315</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>204</v>
       </c>
@@ -14657,8 +15278,11 @@
       <c r="L205" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M205">
+        <v>358.39499999999998</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>205</v>
       </c>
@@ -14695,8 +15319,11 @@
       <c r="L206" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M206">
+        <v>4532.6239999999998</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>206</v>
       </c>
@@ -14733,8 +15360,11 @@
       <c r="L207" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" ht="160.30000000000001" x14ac:dyDescent="0.4">
+      <c r="M207">
+        <v>3898.83</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" ht="160.30000000000001" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>207</v>
       </c>
@@ -14771,8 +15401,11 @@
       <c r="L208" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M208">
+        <v>4364.018</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>208</v>
       </c>
@@ -14809,8 +15442,11 @@
       <c r="L209" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M209">
+        <v>334.69</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>209</v>
       </c>
@@ -14847,8 +15483,11 @@
       <c r="L210" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" ht="160.30000000000001" x14ac:dyDescent="0.4">
+      <c r="M210">
+        <v>4875.0789999999997</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" ht="160.30000000000001" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>210</v>
       </c>
@@ -14885,8 +15524,11 @@
       <c r="L211" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M211">
+        <v>198.839</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>211</v>
       </c>
@@ -14923,8 +15565,11 @@
       <c r="L212" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>212</v>
       </c>
@@ -14961,8 +15606,11 @@
       <c r="L213" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M213">
+        <v>486.40800000000002</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>213</v>
       </c>
@@ -14999,8 +15647,11 @@
       <c r="L214" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M214">
+        <v>491.81</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>214</v>
       </c>
@@ -15037,8 +15688,11 @@
       <c r="L215" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M215">
+        <v>19.387</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>215</v>
       </c>
@@ -15075,8 +15729,11 @@
       <c r="L216" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M216">
+        <v>392.07600000000002</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>216</v>
       </c>
@@ -15113,8 +15770,11 @@
       <c r="L217" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M217">
+        <v>2.7509999999999999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>217</v>
       </c>
@@ -15151,8 +15811,11 @@
       <c r="L218" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M218">
+        <v>8.2989999999999995</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>218</v>
       </c>
@@ -15189,8 +15852,11 @@
       <c r="L219" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="M219">
+        <v>12.669</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>219</v>
       </c>
@@ -15227,8 +15893,11 @@
       <c r="L220" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M220">
+        <v>5.0620000000000003</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>220</v>
       </c>
@@ -15265,8 +15934,11 @@
       <c r="L221" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M221">
+        <v>196.26</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>221</v>
       </c>
@@ -15303,8 +15975,11 @@
       <c r="L222" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M222">
+        <v>575.36099999999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>222</v>
       </c>
@@ -15341,8 +16016,11 @@
       <c r="L223" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M223">
+        <v>194.51400000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>223</v>
       </c>
@@ -15379,8 +16057,11 @@
       <c r="L224" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M224">
+        <v>458.84300000000002</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>224</v>
       </c>
@@ -15417,8 +16098,11 @@
       <c r="L225" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="226" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M225">
+        <v>344.654</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>225</v>
       </c>
@@ -15455,8 +16139,11 @@
       <c r="L226" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M226">
+        <v>3562.6370000000002</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>226</v>
       </c>
@@ -15493,8 +16180,11 @@
       <c r="L227" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M227">
+        <v>585.15800000000002</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>227</v>
       </c>
@@ -15531,8 +16221,11 @@
       <c r="L228" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M228">
+        <v>271.90699999999998</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>228</v>
       </c>
@@ -15569,8 +16262,11 @@
       <c r="L229" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="230" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M229">
+        <v>411.45100000000002</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>229</v>
       </c>
@@ -15607,8 +16303,11 @@
       <c r="L230" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" ht="160.30000000000001" x14ac:dyDescent="0.4">
+      <c r="M230">
+        <v>227.06200000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" ht="160.30000000000001" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>230</v>
       </c>
@@ -15645,8 +16344,11 @@
       <c r="L231" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M231">
+        <v>176.11099999999999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>231</v>
       </c>
@@ -15683,8 +16385,11 @@
       <c r="L232" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="M232">
+        <v>4347.4189999999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>232</v>
       </c>
@@ -15721,8 +16426,11 @@
       <c r="L233" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M233">
+        <v>15.611000000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>233</v>
       </c>
@@ -15759,8 +16467,11 @@
       <c r="L234" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M234">
+        <v>4347.7070000000003</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>234</v>
       </c>
@@ -15797,8 +16508,11 @@
       <c r="L235" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="236" spans="1:12" ht="204" x14ac:dyDescent="0.4">
+      <c r="M235">
+        <v>2094.0169999999998</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" ht="204" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>235</v>
       </c>
@@ -15835,8 +16549,11 @@
       <c r="L236" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M236">
+        <v>422.93599999999998</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A237">
         <v>236</v>
       </c>
@@ -15873,8 +16590,11 @@
       <c r="L237" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M237">
+        <v>2975.8919999999998</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A238">
         <v>237</v>
       </c>
@@ -15911,8 +16631,11 @@
       <c r="L238" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M238">
+        <v>4102.8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A239">
         <v>238</v>
       </c>
@@ -15949,8 +16672,11 @@
       <c r="L239" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M239">
+        <v>2115.674</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A240">
         <v>239</v>
       </c>
@@ -15987,8 +16713,11 @@
       <c r="L240" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M240">
+        <v>442.19600000000003</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>240</v>
       </c>
@@ -16025,8 +16754,11 @@
       <c r="L241" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="242" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M241">
+        <v>3467.1770000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A242">
         <v>241</v>
       </c>
@@ -16063,8 +16795,11 @@
       <c r="L242" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="M242">
+        <v>3505.5149999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A243">
         <v>242</v>
       </c>
@@ -16101,8 +16836,11 @@
       <c r="L243" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="244" spans="1:12" ht="160.30000000000001" x14ac:dyDescent="0.4">
+      <c r="M243">
+        <v>2729.819</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" ht="160.30000000000001" x14ac:dyDescent="0.4">
       <c r="A244">
         <v>243</v>
       </c>
@@ -16139,8 +16877,11 @@
       <c r="L244" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="M244">
+        <v>2689.962</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A245">
         <v>244</v>
       </c>
@@ -16177,8 +16918,11 @@
       <c r="L245" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M245">
+        <v>2715.54</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A246">
         <v>245</v>
       </c>
@@ -16215,8 +16959,11 @@
       <c r="L246" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M246">
+        <v>147.01499999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A247">
         <v>246</v>
       </c>
@@ -16253,8 +17000,11 @@
       <c r="L247" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M247">
+        <v>208.68600000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A248">
         <v>247</v>
       </c>
@@ -16291,8 +17041,11 @@
       <c r="L248" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="249" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M248">
+        <v>4351.5529999999999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A249">
         <v>248</v>
       </c>
@@ -16329,8 +17082,11 @@
       <c r="L249" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M249">
+        <v>380.51799999999997</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A250">
         <v>249</v>
       </c>
@@ -16367,8 +17123,11 @@
       <c r="L250" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M250">
+        <v>358.38</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A251">
         <v>250</v>
       </c>
@@ -16405,8 +17164,11 @@
       <c r="L251" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M251">
+        <v>737.17899999999997</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A252">
         <v>251</v>
       </c>
@@ -16443,8 +17205,11 @@
       <c r="L252" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="253" spans="1:12" ht="160.30000000000001" x14ac:dyDescent="0.4">
+      <c r="M252">
+        <v>166.80500000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" ht="160.30000000000001" x14ac:dyDescent="0.4">
       <c r="A253">
         <v>252</v>
       </c>
@@ -16481,8 +17246,11 @@
       <c r="L253" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="254" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M253">
+        <v>167.06100000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A254">
         <v>253</v>
       </c>
@@ -16519,8 +17287,11 @@
       <c r="L254" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="255" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M254">
+        <v>197.68899999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A255">
         <v>254</v>
       </c>
@@ -16557,8 +17328,11 @@
       <c r="L255" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M255">
+        <v>4332.6819999999998</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A256">
         <v>255</v>
       </c>
@@ -16595,8 +17369,11 @@
       <c r="L256" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="257" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M256">
+        <v>1417.943</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A257">
         <v>256</v>
       </c>
@@ -16633,8 +17410,11 @@
       <c r="L257" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="258" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M257">
+        <v>2135.63</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A258">
         <v>257</v>
       </c>
@@ -16671,8 +17451,11 @@
       <c r="L258" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="259" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M258">
+        <v>1111.922</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A259">
         <v>258</v>
       </c>
@@ -16709,8 +17492,11 @@
       <c r="L259" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="260" spans="1:12" ht="174.9" x14ac:dyDescent="0.4">
+      <c r="M259">
+        <v>255.20699999999999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" ht="174.9" x14ac:dyDescent="0.4">
       <c r="A260">
         <v>259</v>
       </c>
@@ -16747,8 +17533,11 @@
       <c r="L260" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="261" spans="1:12" ht="160.30000000000001" x14ac:dyDescent="0.4">
+      <c r="M260">
+        <v>235.13300000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" ht="160.30000000000001" x14ac:dyDescent="0.4">
       <c r="A261">
         <v>260</v>
       </c>
@@ -16785,8 +17574,11 @@
       <c r="L261" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="262" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M261">
+        <v>188.773</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>261</v>
       </c>
@@ -16823,8 +17615,11 @@
       <c r="L262" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="263" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M262">
+        <v>200.066</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>262</v>
       </c>
@@ -16861,8 +17656,11 @@
       <c r="L263" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="264" spans="1:12" ht="189.45" x14ac:dyDescent="0.4">
+      <c r="M263">
+        <v>350.52499999999998</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" ht="189.45" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>263</v>
       </c>
@@ -16899,8 +17697,11 @@
       <c r="L264" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="265" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M264">
+        <v>158.869</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>264</v>
       </c>
@@ -16937,8 +17738,11 @@
       <c r="L265" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="266" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M265">
+        <v>723.50300000000004</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>265</v>
       </c>
@@ -16975,8 +17779,11 @@
       <c r="L266" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="267" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M266">
+        <v>2929.922</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A267">
         <v>266</v>
       </c>
@@ -17013,8 +17820,11 @@
       <c r="L267" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="268" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M267">
+        <v>2923.6280000000002</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A268">
         <v>267</v>
       </c>
@@ -17051,8 +17861,11 @@
       <c r="L268" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="269" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M268">
+        <v>2925.9769999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A269">
         <v>268</v>
       </c>
@@ -17089,8 +17902,11 @@
       <c r="L269" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="270" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M269">
+        <v>792.06399999999996</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A270">
         <v>269</v>
       </c>
@@ -17127,8 +17943,11 @@
       <c r="L270" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="271" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M270">
+        <v>433.60899999999998</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A271">
         <v>270</v>
       </c>
@@ -17165,8 +17984,11 @@
       <c r="L271" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="272" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M271">
+        <v>427.39699999999999</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A272">
         <v>271</v>
       </c>
@@ -17203,8 +18025,11 @@
       <c r="L272" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="273" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M272">
+        <v>429.71600000000001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A273">
         <v>272</v>
       </c>
@@ -17241,8 +18066,11 @@
       <c r="L273" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="274" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M273">
+        <v>431.02800000000002</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A274">
         <v>273</v>
       </c>
@@ -17279,8 +18107,11 @@
       <c r="L274" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="275" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M274">
+        <v>424.19600000000003</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A275">
         <v>274</v>
       </c>
@@ -17317,8 +18148,11 @@
       <c r="L275" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="276" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M275">
+        <v>420.00200000000001</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A276">
         <v>275</v>
       </c>
@@ -17355,8 +18189,11 @@
       <c r="L276" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M276">
+        <v>2136.768</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>276</v>
       </c>
@@ -17393,8 +18230,11 @@
       <c r="L277" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="278" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M277">
+        <v>275.38799999999998</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A278">
         <v>277</v>
       </c>
@@ -17431,8 +18271,11 @@
       <c r="L278" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="279" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M278">
+        <v>345.93200000000002</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A279">
         <v>278</v>
       </c>
@@ -17469,8 +18312,11 @@
       <c r="L279" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="280" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M279">
+        <v>3439.8829999999998</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A280">
         <v>279</v>
       </c>
@@ -17507,8 +18353,11 @@
       <c r="L280" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="281" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M280">
+        <v>426.94799999999998</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>280</v>
       </c>
@@ -17545,8 +18394,11 @@
       <c r="L281" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="282" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M281">
+        <v>457.00299999999999</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A282">
         <v>281</v>
       </c>
@@ -17583,8 +18435,11 @@
       <c r="L282" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="283" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M282">
+        <v>4561.8530000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A283">
         <v>282</v>
       </c>
@@ -17621,8 +18476,11 @@
       <c r="L283" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="284" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M283">
+        <v>2408.913</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A284">
         <v>283</v>
       </c>
@@ -17659,8 +18517,11 @@
       <c r="L284" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="285" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M284">
+        <v>4057.009</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>284</v>
       </c>
@@ -17697,8 +18558,11 @@
       <c r="L285" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="M285">
+        <v>1518.9690000000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A286">
         <v>285</v>
       </c>
@@ -17735,8 +18599,11 @@
       <c r="L286" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="287" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M286">
+        <v>4318.3100000000004</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A287">
         <v>286</v>
       </c>
@@ -17773,8 +18640,11 @@
       <c r="L287" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="288" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M287">
+        <v>453.02</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A288">
         <v>287</v>
       </c>
@@ -17811,8 +18681,11 @@
       <c r="L288" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="289" spans="1:12" ht="160.30000000000001" x14ac:dyDescent="0.4">
+      <c r="M288">
+        <v>3463.8069999999998</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" ht="160.30000000000001" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>288</v>
       </c>
@@ -17849,8 +18722,11 @@
       <c r="L289" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="290" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M289">
+        <v>560.18200000000002</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A290">
         <v>289</v>
       </c>
@@ -17887,8 +18763,11 @@
       <c r="L290" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="291" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M290">
+        <v>2733.6880000000001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A291">
         <v>290</v>
       </c>
@@ -17925,8 +18804,11 @@
       <c r="L291" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="292" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M291">
+        <v>2723.3539999999998</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A292">
         <v>291</v>
       </c>
@@ -17963,8 +18845,11 @@
       <c r="L292" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="293" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M292">
+        <v>4351.9769999999999</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A293">
         <v>292</v>
       </c>
@@ -18001,8 +18886,11 @@
       <c r="L293" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="294" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M293">
+        <v>103.303</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A294">
         <v>293</v>
       </c>
@@ -18039,8 +18927,11 @@
       <c r="L294" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="295" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M294">
+        <v>3493.7939999999999</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A295">
         <v>294</v>
       </c>
@@ -18077,8 +18968,11 @@
       <c r="L295" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="296" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M295">
+        <v>483.49099999999999</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A296">
         <v>295</v>
       </c>
@@ -18115,8 +19009,11 @@
       <c r="L296" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="297" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M296">
+        <v>4335.5780000000004</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A297">
         <v>296</v>
       </c>
@@ -18153,8 +19050,11 @@
       <c r="L297" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="298" spans="1:12" ht="218.6" x14ac:dyDescent="0.4">
+      <c r="M297">
+        <v>4331.7479999999996</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" ht="218.6" x14ac:dyDescent="0.4">
       <c r="A298">
         <v>297</v>
       </c>
@@ -18191,8 +19091,11 @@
       <c r="L298" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="299" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M298">
+        <v>1644.104</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A299">
         <v>298</v>
       </c>
@@ -18229,8 +19132,11 @@
       <c r="L299" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="300" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M299">
+        <v>198.708</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A300">
         <v>299</v>
       </c>
@@ -18267,8 +19173,11 @@
       <c r="L300" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="301" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M300">
+        <v>386.37700000000001</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A301">
         <v>300</v>
       </c>
@@ -18305,8 +19214,11 @@
       <c r="L301" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="302" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M301">
+        <v>1460.808</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A302">
         <v>301</v>
       </c>
@@ -18343,8 +19255,11 @@
       <c r="L302" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="303" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M302">
+        <v>1450.8040000000001</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A303">
         <v>302</v>
       </c>
@@ -18381,8 +19296,11 @@
       <c r="L303" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="304" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M303">
+        <v>172.73500000000001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A304">
         <v>303</v>
       </c>
@@ -18419,8 +19337,11 @@
       <c r="L304" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="305" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="M304">
+        <v>718.43799999999999</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A305">
         <v>304</v>
       </c>
@@ -18457,8 +19378,11 @@
       <c r="L305" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="306" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M305">
+        <v>957.81799999999998</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A306">
         <v>305</v>
       </c>
@@ -18495,8 +19419,11 @@
       <c r="L306" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="307" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M306">
+        <v>450.20800000000003</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A307">
         <v>306</v>
       </c>
@@ -18533,8 +19460,11 @@
       <c r="L307" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="308" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M307">
+        <v>444.08</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A308">
         <v>307</v>
       </c>
@@ -18571,8 +19501,11 @@
       <c r="L308" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="309" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M308">
+        <v>315.964</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A309">
         <v>308</v>
       </c>
@@ -18609,8 +19542,11 @@
       <c r="L309" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="310" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M309">
+        <v>448.25</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A310">
         <v>309</v>
       </c>
@@ -18647,8 +19583,11 @@
       <c r="L310" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="311" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M310">
+        <v>4363.5950000000003</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A311">
         <v>310</v>
       </c>
@@ -18685,8 +19624,11 @@
       <c r="L311" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="312" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M311">
+        <v>4358.7269999999999</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A312">
         <v>311</v>
       </c>
@@ -18723,8 +19665,11 @@
       <c r="L312" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="313" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M312">
+        <v>4359.59</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A313">
         <v>312</v>
       </c>
@@ -18761,8 +19706,11 @@
       <c r="L313" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="314" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M313">
+        <v>4352.4859999999999</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A314">
         <v>313</v>
       </c>
@@ -18799,8 +19747,11 @@
       <c r="L314" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="315" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M314">
+        <v>4360.8230000000003</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A315">
         <v>314</v>
       </c>
@@ -18837,8 +19788,11 @@
       <c r="L315" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="316" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M315">
+        <v>4353.6570000000002</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A316">
         <v>315</v>
       </c>
@@ -18875,8 +19829,11 @@
       <c r="L316" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="317" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M316">
+        <v>159.76900000000001</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A317">
         <v>316</v>
       </c>
@@ -18913,8 +19870,11 @@
       <c r="L317" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="318" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M317">
+        <v>396.839</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A318">
         <v>317</v>
       </c>
@@ -18951,8 +19911,11 @@
       <c r="L318" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="319" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M318">
+        <v>4359.0839999999998</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A319">
         <v>318</v>
       </c>
@@ -18989,8 +19952,11 @@
       <c r="L319" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="320" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M319">
+        <v>197.124</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A320">
         <v>319</v>
       </c>
@@ -19027,8 +19993,11 @@
       <c r="L320" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="321" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M320">
+        <v>185.637</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A321">
         <v>320</v>
       </c>
@@ -19065,8 +20034,11 @@
       <c r="L321" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="322" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M321">
+        <v>546.14800000000002</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A322">
         <v>321</v>
       </c>
@@ -19103,8 +20075,11 @@
       <c r="L322" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="323" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M322">
+        <v>539.82100000000003</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A323">
         <v>322</v>
       </c>
@@ -19141,8 +20116,11 @@
       <c r="L323" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="324" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M323">
+        <v>1290.837</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A324">
         <v>323</v>
       </c>
@@ -19179,8 +20157,11 @@
       <c r="L324" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="325" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M324">
+        <v>4383.0110000000004</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A325">
         <v>324</v>
       </c>
@@ -19217,8 +20198,11 @@
       <c r="L325" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="326" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M325">
+        <v>399.08300000000003</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A326">
         <v>325</v>
       </c>
@@ -19255,8 +20239,11 @@
       <c r="L326" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="327" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M326">
+        <v>439.51900000000001</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A327">
         <v>326</v>
       </c>
@@ -19293,8 +20280,11 @@
       <c r="L327" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="328" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M327">
+        <v>802.63300000000004</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A328">
         <v>327</v>
       </c>
@@ -19331,8 +20321,11 @@
       <c r="L328" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="329" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M328">
+        <v>798.01400000000001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A329">
         <v>328</v>
       </c>
@@ -19369,8 +20362,11 @@
       <c r="L329" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="330" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="M329">
+        <v>2142.35</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="A330">
         <v>329</v>
       </c>
@@ -19407,8 +20403,11 @@
       <c r="L330" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="331" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M330">
+        <v>2153.0410000000002</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A331">
         <v>330</v>
       </c>
@@ -19445,8 +20444,11 @@
       <c r="L331" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="332" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M331">
+        <v>2139.9940000000001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A332">
         <v>331</v>
       </c>
@@ -19483,8 +20485,11 @@
       <c r="L332" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="333" spans="1:12" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="M332">
+        <v>2138.4639999999999</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A333">
         <v>332</v>
       </c>
@@ -19521,8 +20526,11 @@
       <c r="L333" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="334" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M333">
+        <v>3654.3670000000002</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A334">
         <v>333</v>
       </c>
@@ -19559,8 +20567,11 @@
       <c r="L334" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="335" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="M334">
+        <v>451.87799999999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A335">
         <v>334</v>
       </c>
@@ -19597,8 +20608,11 @@
       <c r="L335" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="336" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="M335">
+        <v>2600.6060000000002</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A336">
         <v>335</v>
       </c>
@@ -19635,8 +20649,14 @@
       <c r="L336" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="337" spans="2:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="M336">
+        <v>410.88200000000001</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="A337">
+        <v>336</v>
+      </c>
       <c r="B337" t="s">
         <v>1701</v>
       </c>
@@ -19669,6 +20689,9 @@
       </c>
       <c r="L337" t="s">
         <v>18</v>
+      </c>
+      <c r="M337">
+        <v>5433.1120000000001</v>
       </c>
     </row>
   </sheetData>
